--- a/spec/fixtures/files/RJ_Simple_Sample_Test.xlsx
+++ b/spec/fixtures/files/RJ_Simple_Sample_Test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haridher\Downloads\archived_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haridher\Desktop\Code\Repos\KANM-Show-Scheduling\public\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C33441-0DCB-41F8-A125-4CE296980BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0F8856-2065-4CE1-B37E-C4238361864E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{330C708C-5D41-460D-8AE7-4DC33D46AD04}"/>
   </bookViews>
@@ -551,7 +551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="757">
   <si>
     <t>Timestamp</t>
   </si>
@@ -671,9 +671,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>8; 9; 10; 11; 12</t>
   </si>
   <si>
     <t>He/Him</t>
@@ -2412,9 +2409,6 @@
     <t>10 PM, 11 PM</t>
   </si>
   <si>
-    <t>10 PM, 11 PM, 12 AM, 1 AM, 2 AM</t>
-  </si>
-  <si>
     <t>11 PM, 12 AM</t>
   </si>
   <si>
@@ -2493,15 +2487,6 @@
     <t>12 AM, 1 AM, 2 AM, 3 AM</t>
   </si>
   <si>
-    <t>11 PM, 12 AM, 1 AM, 2 AM</t>
-  </si>
-  <si>
-    <t>1 AM, 2 AM, 3 AM, 4 AM</t>
-  </si>
-  <si>
-    <t>1 AM, 2 AM, 3 AM</t>
-  </si>
-  <si>
     <t>12 AM, 1 AM</t>
   </si>
   <si>
@@ -2595,9 +2580,6 @@
     <t>3 PM, 4 PM, 5PM</t>
   </si>
   <si>
-    <t>2 PM, 3 PM , 4PM</t>
-  </si>
-  <si>
     <t>9 AM, 10 AM, 10 PM</t>
   </si>
   <si>
@@ -2619,9 +2601,6 @@
     <t>4 PM, 5 PM, 6 PM</t>
   </si>
   <si>
-    <t>2 PM, 3 PM, 4PM</t>
-  </si>
-  <si>
     <t>3 PM, 5 PM, 6 PM</t>
   </si>
   <si>
@@ -2854,6 +2833,24 @@
   </si>
   <si>
     <t>27, 28, 29, 30, 31</t>
+  </si>
+  <si>
+    <t>2 PM, 3 PM , 4 PM</t>
+  </si>
+  <si>
+    <t>8 AM, 9 AM, 10 AM,  11 AM, 12 PM</t>
+  </si>
+  <si>
+    <t>11 PM, 12 AM, 1 AM, 6 AM</t>
+  </si>
+  <si>
+    <t>1 AM, 5 AM, 6 AM, 7 AM</t>
+  </si>
+  <si>
+    <t>12 AM, 1 AM, 5 AM</t>
+  </si>
+  <si>
+    <t>10 PM, 11 PM, 12 AM, 1 AM, 5 AM</t>
   </si>
 </sst>
 </file>
@@ -3281,8 +3278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E283A7-4440-43D5-9670-E0A39CFCDEA9}">
   <dimension ref="A1:AQ21"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2:AN21"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3340,10 +3337,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -3352,43 +3349,43 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>24</v>
@@ -3397,67 +3394,67 @@
         <v>25</v>
       </c>
       <c r="V1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="AF1" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="AE1" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="AK1" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="AK1" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="AN1" s="6" t="s">
-        <v>587</v>
-      </c>
       <c r="AO1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP1" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="AQ1" s="2" t="s">
         <v>31</v>
@@ -3468,7 +3465,7 @@
         <v>45520.840164837966</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>34</v>
@@ -3477,16 +3474,16 @@
         <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" s="4">
         <v>1</v>
@@ -3495,7 +3492,7 @@
         <v>2025</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>37</v>
@@ -3504,10 +3501,10 @@
         <v>37</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>37</v>
@@ -3524,54 +3521,54 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="Z2" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="AA2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB2" s="13" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AC2" s="15" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="AD2" s="15" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="AE2" s="15" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="AF2" s="15" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="AG2" s="15" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="AH2" s="16"/>
       <c r="AI2" s="16"/>
       <c r="AJ2" s="16"/>
       <c r="AK2" s="16" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="AL2" s="16"/>
       <c r="AM2" s="16" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="AN2" s="16">
         <v>19</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
@@ -3579,7 +3576,7 @@
         <v>45520.844875543982</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>34</v>
@@ -3588,16 +3585,16 @@
         <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" s="4">
         <v>3</v>
@@ -3606,7 +3603,7 @@
         <v>2025</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>37</v>
@@ -3615,10 +3612,10 @@
         <v>37</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>39</v>
@@ -3635,54 +3632,54 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y3" s="1"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB3" s="13" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AC3" s="16" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="AD3" s="15" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="AE3" s="16" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="AF3" s="15" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AG3" s="16" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AH3" s="15"/>
       <c r="AI3" s="16"/>
       <c r="AJ3" s="16" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="AK3" s="16"/>
       <c r="AL3" s="16" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="AM3" s="16" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="AN3" s="16" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="AO3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.3">
@@ -3690,7 +3687,7 @@
         <v>45520.877430636574</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
@@ -3699,16 +3696,16 @@
         <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="4">
         <v>5</v>
@@ -3717,7 +3714,7 @@
         <v>2027</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>37</v>
@@ -3726,10 +3723,10 @@
         <v>37</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>37</v>
@@ -3743,57 +3740,57 @@
         <v>37</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="X4" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="Y4" s="1"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB4" s="13" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AC4" s="15"/>
       <c r="AD4" s="15"/>
       <c r="AE4" s="15"/>
       <c r="AF4" s="15"/>
       <c r="AG4" s="15" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="AH4" s="15" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="AI4" s="15" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="AJ4" s="16" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="AK4" s="16" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="AL4" s="16" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="AM4" s="16"/>
       <c r="AN4" s="16"/>
       <c r="AO4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AP4" s="2" t="s">
+      <c r="AQ4" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="AQ4" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.3">
@@ -3801,25 +3798,25 @@
         <v>45520.880191446762</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" s="4">
         <v>6</v>
@@ -3837,10 +3834,10 @@
         <v>37</v>
       </c>
       <c r="N5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>39</v>
@@ -3854,71 +3851,71 @@
         <v>37</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="V5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="W5" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="X5" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB5" s="13" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AC5" s="16" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="AD5" s="16" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="AE5" s="16" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="AF5" s="16" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="AG5" s="16" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="AH5" s="15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AI5" s="16" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AJ5" s="16" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="AK5" s="16" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="AL5" s="16" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="AM5" s="16" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="AN5" s="16" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="AO5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP5" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AP5" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="AQ5" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.3">
@@ -3926,7 +3923,7 @@
         <v>45520.88518646991</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>34</v>
@@ -3935,16 +3932,16 @@
         <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="I6" s="4">
         <v>7</v>
@@ -3962,10 +3959,10 @@
         <v>37</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>39</v>
@@ -3979,59 +3976,59 @@
         <v>37</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="W6" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="W6" s="2" t="s">
+      <c r="X6" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB6" s="13" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AC6" s="15" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="AD6" s="16"/>
       <c r="AE6" s="15" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="AF6" s="15"/>
       <c r="AG6" s="15" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="AH6" s="16"/>
       <c r="AI6" s="16"/>
       <c r="AJ6" s="16"/>
       <c r="AK6" s="16" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="AL6" s="16"/>
       <c r="AM6" s="16" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="AN6" s="16" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="AO6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="AP6" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ6" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.3">
@@ -4039,7 +4036,7 @@
         <v>45520.898445312501</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>34</v>
@@ -4048,16 +4045,16 @@
         <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I7" s="4">
         <v>9</v>
@@ -4075,10 +4072,10 @@
         <v>37</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>39</v>
@@ -4092,71 +4089,71 @@
         <v>37</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="W7" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="X7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="Y7" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB7" s="13" t="s">
+        <v>588</v>
+      </c>
+      <c r="AC7" s="16" t="s">
+        <v>610</v>
+      </c>
+      <c r="AD7" s="16" t="s">
+        <v>610</v>
+      </c>
+      <c r="AE7" s="16" t="s">
+        <v>610</v>
+      </c>
+      <c r="AF7" s="16" t="s">
+        <v>610</v>
+      </c>
+      <c r="AG7" s="16" t="s">
+        <v>610</v>
+      </c>
+      <c r="AH7" s="15" t="s">
+        <v>614</v>
+      </c>
+      <c r="AI7" s="16" t="s">
+        <v>614</v>
+      </c>
+      <c r="AJ7" s="16" t="s">
+        <v>695</v>
+      </c>
+      <c r="AK7" s="16" t="s">
+        <v>696</v>
+      </c>
+      <c r="AL7" s="16" t="s">
+        <v>697</v>
+      </c>
+      <c r="AM7" s="16" t="s">
+        <v>698</v>
+      </c>
+      <c r="AN7" s="16" t="s">
+        <v>699</v>
+      </c>
+      <c r="AO7" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AB7" s="13" t="s">
-        <v>589</v>
-      </c>
-      <c r="AC7" s="16" t="s">
-        <v>612</v>
-      </c>
-      <c r="AD7" s="16" t="s">
-        <v>612</v>
-      </c>
-      <c r="AE7" s="16" t="s">
-        <v>612</v>
-      </c>
-      <c r="AF7" s="16" t="s">
-        <v>612</v>
-      </c>
-      <c r="AG7" s="16" t="s">
-        <v>612</v>
-      </c>
-      <c r="AH7" s="15" t="s">
-        <v>616</v>
-      </c>
-      <c r="AI7" s="16" t="s">
-        <v>616</v>
-      </c>
-      <c r="AJ7" s="16" t="s">
-        <v>702</v>
-      </c>
-      <c r="AK7" s="16" t="s">
-        <v>703</v>
-      </c>
-      <c r="AL7" s="16" t="s">
-        <v>704</v>
-      </c>
-      <c r="AM7" s="16" t="s">
-        <v>705</v>
-      </c>
-      <c r="AN7" s="16" t="s">
-        <v>706</v>
-      </c>
-      <c r="AO7" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="AP7" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AQ7" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.3">
@@ -4164,7 +4161,7 @@
         <v>45520.90976166667</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>34</v>
@@ -4173,16 +4170,16 @@
         <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>475</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I8" s="4">
         <v>10</v>
@@ -4191,7 +4188,7 @@
         <v>2026</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>37</v>
@@ -4200,10 +4197,10 @@
         <v>37</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>37</v>
@@ -4217,65 +4214,65 @@
         <v>37</v>
       </c>
       <c r="U8" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="V8" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="W8" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="W8" s="2" t="s">
+      <c r="X8" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AB8" s="13" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AC8" s="15" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="AD8" s="15" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="AE8" s="15" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="AF8" s="15"/>
       <c r="AG8" s="16"/>
       <c r="AH8" s="16" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AI8" s="16" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="AJ8" s="16"/>
       <c r="AK8" s="16" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="AL8" s="16" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="AM8" s="16" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="AN8" s="16" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="AO8" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="AP8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ8" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="AP8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ8" s="2" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.3">
@@ -4283,7 +4280,7 @@
         <v>45520.962110347224</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>34</v>
@@ -4292,16 +4289,16 @@
         <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9" s="4">
         <v>12</v>
@@ -4310,7 +4307,7 @@
         <v>2025</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>37</v>
@@ -4319,10 +4316,10 @@
         <v>37</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>39</v>
@@ -4339,62 +4336,62 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y9" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>488</v>
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AB9" s="13" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AC9" s="16" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="AD9" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="AE9" s="16" t="s">
         <v>605</v>
       </c>
-      <c r="AE9" s="16" t="s">
-        <v>606</v>
-      </c>
       <c r="AF9" s="15" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AG9" s="16" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AH9" s="15" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AI9" s="16" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="AJ9" s="16" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="AK9" s="16" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="AL9" s="16" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="AM9" s="16" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="AN9" s="16" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="AO9" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="AP9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ9" s="2" t="s">
         <v>489</v>
-      </c>
-      <c r="AP9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ9" s="2" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.3">
@@ -4402,7 +4399,7 @@
         <v>45520.96222105324</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>34</v>
@@ -4411,16 +4408,16 @@
         <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>493</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" s="4">
         <v>13</v>
@@ -4429,7 +4426,7 @@
         <v>2026</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>37</v>
@@ -4438,10 +4435,10 @@
         <v>37</v>
       </c>
       <c r="N10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>37</v>
@@ -4455,67 +4452,67 @@
         <v>37</v>
       </c>
       <c r="U10" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="V10" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="W10" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="W10" s="2" t="s">
+      <c r="X10" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>497</v>
       </c>
       <c r="Y10" s="1"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB10" s="13" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AC10" s="15" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="AD10" s="16" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="AE10" s="15" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="AF10" s="15" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AG10" s="16" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="AH10" s="16" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AI10" s="16" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AJ10" s="16" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="AK10" s="16" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="AL10" s="16"/>
       <c r="AM10" s="16" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="AN10" s="16">
         <v>19</v>
       </c>
       <c r="AO10" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AP10" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AQ10" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.3">
@@ -4523,7 +4520,7 @@
         <v>45520.962562083332</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>34</v>
@@ -4532,16 +4529,16 @@
         <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" s="4">
         <v>14</v>
@@ -4550,7 +4547,7 @@
         <v>2026</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>37</v>
@@ -4559,10 +4556,10 @@
         <v>37</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>39</v>
@@ -4579,52 +4576,52 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Y11" s="1"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB11" s="13" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AC11" s="15" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="AD11" s="15" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="AE11" s="15" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="AF11" s="15" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="AG11" s="15"/>
       <c r="AH11" s="15"/>
       <c r="AI11" s="15"/>
       <c r="AJ11" s="16" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="AK11" s="16" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="AL11" s="16" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="AM11" s="16"/>
       <c r="AN11" s="16" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="AO11" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AP11" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AQ11" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.3">
@@ -4632,7 +4629,7 @@
         <v>45520.976700416664</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>34</v>
@@ -4641,13 +4638,13 @@
         <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>507</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>36</v>
@@ -4659,7 +4656,7 @@
         <v>2025</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>37</v>
@@ -4671,13 +4668,13 @@
         <v>38</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -4685,65 +4682,65 @@
         <v>37</v>
       </c>
       <c r="U12" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="V12" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="V12" s="2" t="s">
+      <c r="W12" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="W12" s="2" t="s">
+      <c r="X12" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="X12" s="1" t="s">
-        <v>512</v>
-      </c>
       <c r="Y12" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB12" s="13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AC12" s="16" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="AD12" s="15" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AE12" s="16" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="AF12" s="15" t="s">
-        <v>671</v>
+        <v>751</v>
       </c>
       <c r="AG12" s="16"/>
       <c r="AH12" s="15"/>
       <c r="AI12" s="16" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AJ12" s="16" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="AK12" s="16"/>
       <c r="AL12" s="16" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="AM12" s="16" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="AN12" s="16" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="AO12" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AP12" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AQ12" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.3">
@@ -4751,7 +4748,7 @@
         <v>45520.977396840273</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>34</v>
@@ -4760,16 +4757,16 @@
         <v>37</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>517</v>
-      </c>
       <c r="H13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="4">
         <v>16</v>
@@ -4778,7 +4775,7 @@
         <v>2025</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>37</v>
@@ -4790,7 +4787,7 @@
         <v>38</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>39</v>
@@ -4807,58 +4804,58 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB13" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="AC13" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="AD13" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="AC13" s="15" t="s">
-        <v>600</v>
-      </c>
-      <c r="AD13" s="16" t="s">
-        <v>595</v>
-      </c>
       <c r="AE13" s="15" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AF13" s="15" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AG13" s="16" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AH13" s="16" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AI13" s="16" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AJ13" s="16" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="AK13" s="16" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="AL13" s="16"/>
       <c r="AM13" s="16" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="AN13" s="16" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="AO13" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AP13" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AQ13" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.3">
@@ -4866,7 +4863,7 @@
         <v>45521.073736099541</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>34</v>
@@ -4875,16 +4872,16 @@
         <v>37</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>522</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="4">
         <v>18</v>
@@ -4893,7 +4890,7 @@
         <v>2026</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>37</v>
@@ -4902,10 +4899,10 @@
         <v>37</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>39</v>
@@ -4922,50 +4919,50 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Y14" s="1"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB14" s="13" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AC14" s="16"/>
       <c r="AD14" s="15" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="AE14" s="16"/>
       <c r="AF14" s="15" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="AG14" s="16"/>
       <c r="AH14" s="15"/>
       <c r="AI14" s="16" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="AJ14" s="16" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="AK14" s="16"/>
       <c r="AL14" s="16" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="AM14" s="16" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="AN14" s="16" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="AO14" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AP14" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AQ14" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.3">
@@ -4973,7 +4970,7 @@
         <v>45521.416893715279</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>34</v>
@@ -4982,16 +4979,16 @@
         <v>37</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>527</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="4">
         <v>20</v>
@@ -5000,7 +4997,7 @@
         <v>2025</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>37</v>
@@ -5009,16 +5006,16 @@
         <v>37</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -5029,60 +5026,60 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Y15" s="1"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB15" s="13" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AC15" s="15" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="AD15" s="15" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="AE15" s="15" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="AF15" s="15" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="AG15" s="15" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="AH15" s="15" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="AI15" s="15" t="s">
-        <v>40</v>
+        <v>752</v>
       </c>
       <c r="AJ15" s="16" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="AK15" s="16" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="AL15" s="16" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="AM15" s="16" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="AN15" s="16" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="AO15" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AP15" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AQ15" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.3">
@@ -5090,7 +5087,7 @@
         <v>45521.631505439815</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>34</v>
@@ -5099,16 +5096,16 @@
         <v>37</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>532</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I16" s="4">
         <v>23</v>
@@ -5117,7 +5114,7 @@
         <v>2025</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>37</v>
@@ -5129,7 +5126,7 @@
         <v>38</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>37</v>
@@ -5146,56 +5143,56 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Y16" s="1"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB16" s="13" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AC16" s="15" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="AD16" s="15"/>
       <c r="AE16" s="15" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="AF16" s="15" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="AG16" s="15"/>
       <c r="AH16" s="15" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AI16" s="15" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="AJ16" s="16" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="AK16" s="16" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="AL16" s="16" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="AM16" s="16" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="AN16" s="16" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="AO16" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AP16" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AQ16" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.3">
@@ -5203,7 +5200,7 @@
         <v>45521.638139016199</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>34</v>
@@ -5212,16 +5209,16 @@
         <v>37</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>537</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I17" s="4">
         <v>24</v>
@@ -5239,10 +5236,10 @@
         <v>37</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>39</v>
@@ -5259,58 +5256,58 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="Y17" s="1"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB17" s="13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AC17" s="16" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="AD17" s="15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AE17" s="16"/>
       <c r="AF17" s="15" t="s">
-        <v>40</v>
+        <v>752</v>
       </c>
       <c r="AG17" s="16" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="AH17" s="15" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="AI17" s="16" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="AJ17" s="16" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="AK17" s="16" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="AL17" s="16" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="AM17" s="16" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="AN17" s="16" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="AO17" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AP17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ17" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="AQ17" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.3">
@@ -5318,7 +5315,7 @@
         <v>45521.795106377314</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>34</v>
@@ -5327,16 +5324,16 @@
         <v>37</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>543</v>
       </c>
       <c r="I18" s="4">
         <v>26</v>
@@ -5345,7 +5342,7 @@
         <v>2027</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>37</v>
@@ -5354,10 +5351,10 @@
         <v>37</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>37</v>
@@ -5374,60 +5371,60 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="Y18" s="1"/>
       <c r="Z18" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AB18" s="13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AC18" s="15" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="AD18" s="15" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="AE18" s="15" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="AF18" s="15" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="AG18" s="15" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="AH18" s="15" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="AI18" s="15" t="s">
-        <v>679</v>
+        <v>637</v>
       </c>
       <c r="AJ18" s="16" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="AK18" s="16"/>
       <c r="AL18" s="16" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="AM18" s="16" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="AN18" s="16" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="AO18" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AP18" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AQ18" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.3">
@@ -5435,7 +5432,7 @@
         <v>45522.483493587963</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>34</v>
@@ -5444,16 +5441,16 @@
         <v>37</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>549</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I19" s="4">
         <v>27</v>
@@ -5462,7 +5459,7 @@
         <v>2025</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>37</v>
@@ -5471,10 +5468,10 @@
         <v>37</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>39</v>
@@ -5491,58 +5488,58 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="Y19" s="1"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB19" s="13" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AC19" s="16" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="AD19" s="15" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="AE19" s="16" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="AF19" s="15" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="AG19" s="16" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="AH19" s="15" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AI19" s="16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AJ19" s="16" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="AK19" s="16"/>
       <c r="AL19" s="16" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="AM19" s="16" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="AN19" s="16" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="AO19" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AP19" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AQ19" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.3">
@@ -5550,25 +5547,25 @@
         <v>45522.488518784725</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>554</v>
-      </c>
       <c r="G20" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I20" s="4">
         <v>28</v>
@@ -5577,7 +5574,7 @@
         <v>2025</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>37</v>
@@ -5586,16 +5583,16 @@
         <v>37</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
@@ -5603,65 +5600,65 @@
         <v>37</v>
       </c>
       <c r="U20" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="V20" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="V20" s="2" t="s">
+      <c r="W20" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="W20" s="2" t="s">
+      <c r="X20" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>558</v>
       </c>
       <c r="Y20" s="1"/>
       <c r="Z20" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AB20" s="13" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AC20" s="15" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="AD20" s="16" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AE20" s="15" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="AF20" s="15" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="AG20" s="16" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="AH20" s="16" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AI20" s="16" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="AJ20" s="16"/>
       <c r="AK20" s="16" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="AL20" s="16"/>
       <c r="AM20" s="16"/>
       <c r="AN20" s="16" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="AO20" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AP20" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AQ20" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.3">
@@ -5669,7 +5666,7 @@
         <v>45522.53674865741</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>34</v>
@@ -5678,16 +5675,16 @@
         <v>37</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>563</v>
-      </c>
       <c r="G21" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I21" s="4">
         <v>29</v>
@@ -5696,7 +5693,7 @@
         <v>2025</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>37</v>
@@ -5705,10 +5702,10 @@
         <v>37</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>39</v>
@@ -5725,58 +5722,58 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB21" s="13" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AC21" s="15" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="AD21" s="15" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="AE21" s="15"/>
       <c r="AF21" s="15" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="AG21" s="15" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="AH21" s="15" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="AI21" s="15" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="AJ21" s="16" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="AK21" s="16" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="AL21" s="16" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="AM21" s="16"/>
       <c r="AN21" s="16" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="AO21" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AP21" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AQ21" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -5789,8 +5786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5105C0CE-81ED-4EAC-85F2-91D87B6ED407}">
   <dimension ref="A1:BA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AL23" sqref="AL23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5889,10 +5886,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>13</v>
@@ -5907,7 +5904,7 @@
         <v>16</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>18</v>
@@ -5946,52 +5943,52 @@
         <v>28</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AH1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="AN1" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="AM1" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="AN1" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AP1" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="AS1" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AT1" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="AS1" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AV1" s="6" t="s">
         <v>586</v>
-      </c>
-      <c r="AV1" s="6" t="s">
-        <v>587</v>
       </c>
       <c r="AW1" s="2" t="s">
         <v>30</v>
@@ -6006,7 +6003,7 @@
         <v>33</v>
       </c>
       <c r="BA1" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
@@ -6014,7 +6011,7 @@
         <v>45530.45733380787</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>34</v>
@@ -6026,34 +6023,34 @@
         <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="K2" s="4">
         <v>1004</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="N2" s="1">
         <v>2028</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>37</v>
@@ -6062,86 +6059,86 @@
         <v>37</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="AH2" s="2"/>
       <c r="AI2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ2" s="14" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AK2" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="AL2" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="AM2" s="15" t="s">
         <v>603</v>
-      </c>
-      <c r="AL2" s="15" t="s">
-        <v>603</v>
-      </c>
-      <c r="AM2" s="15" t="s">
-        <v>604</v>
       </c>
       <c r="AN2" s="15"/>
       <c r="AO2" s="15"/>
       <c r="AP2" s="15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AQ2" s="15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AR2" s="16"/>
       <c r="AS2" s="16" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="AT2" s="16"/>
       <c r="AU2" s="16" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="AV2" s="16">
         <v>19</v>
       </c>
       <c r="AW2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="AZ2" s="2"/>
       <c r="BA2" s="2"/>
@@ -6151,7 +6148,7 @@
         <v>45530.462335625001</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>34</v>
@@ -6163,34 +6160,34 @@
         <v>35</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="K3" s="4">
         <v>1005</v>
       </c>
       <c r="L3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="N3" s="1">
         <v>2028</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>37</v>
@@ -6199,86 +6196,86 @@
         <v>37</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG3" s="1"/>
       <c r="AH3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ3" s="13" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AK3" s="16"/>
       <c r="AL3" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="AM3" s="16" t="s">
         <v>607</v>
       </c>
-      <c r="AM3" s="16" t="s">
+      <c r="AN3" s="15" t="s">
         <v>608</v>
-      </c>
-      <c r="AN3" s="15" t="s">
-        <v>609</v>
       </c>
       <c r="AO3" s="16"/>
       <c r="AP3" s="15" t="s">
-        <v>610</v>
+        <v>756</v>
       </c>
       <c r="AQ3" s="16"/>
       <c r="AR3" s="16" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="AS3" s="16"/>
       <c r="AT3" s="16" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="AU3" s="16" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="AV3" s="16" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="AW3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="AY3" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="AY3" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="AZ3" s="2"/>
       <c r="BA3" s="2"/>
@@ -6288,7 +6285,7 @@
         <v>45541.611743043977</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
@@ -6300,34 +6297,34 @@
         <v>35</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="K4" s="4">
         <v>1010</v>
       </c>
       <c r="L4" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="N4" s="1">
         <v>2027</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>37</v>
@@ -6336,91 +6333,91 @@
         <v>37</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="Y4" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH4" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="AG4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="AI4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AJ4" s="13" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AK4" s="15" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AL4" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AM4" s="15" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AN4" s="15" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AO4" s="15" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AP4" s="15"/>
       <c r="AQ4" s="15"/>
       <c r="AR4" s="16" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="AS4" s="16" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="AT4" s="16" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="AU4" s="16"/>
       <c r="AV4" s="16"/>
       <c r="AW4" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AX4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY4" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AX4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY4" s="2" t="s">
+      <c r="AZ4" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="AZ4" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="BA4" s="2" t="s">
         <v>39</v>
@@ -6431,7 +6428,7 @@
         <v>45537.600239722218</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
@@ -6443,16 +6440,16 @@
         <v>35</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J5" s="9">
         <v>335001789</v>
@@ -6461,16 +6458,16 @@
         <v>1011</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N5" s="1">
         <v>2028</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>37</v>
@@ -6479,86 +6476,86 @@
         <v>37</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W5" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W5" s="2" t="s">
+      <c r="X5" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="Y5" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Z5" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="AA5" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AG5" s="1"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AJ5" s="13" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AK5" s="16"/>
       <c r="AL5" s="15" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AM5" s="16"/>
       <c r="AN5" s="15"/>
       <c r="AO5" s="16" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AP5" s="16" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AQ5" s="16" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AR5" s="16" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="AS5" s="16" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="AT5" s="16" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="AU5" s="16" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="AV5" s="16" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="AW5" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY5" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="AX5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY5" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="AZ5" s="2"/>
       <c r="BA5" s="2" t="s">
@@ -6570,7 +6567,7 @@
         <v>45530.877909421295</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>34</v>
@@ -6582,34 +6579,34 @@
         <v>35</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="K6" s="4">
         <v>1018</v>
       </c>
       <c r="L6" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="N6" s="1">
         <v>2026</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>37</v>
@@ -6618,88 +6615,88 @@
         <v>37</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>39</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W6" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W6" s="2" t="s">
+      <c r="X6" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="X6" s="2" t="s">
+      <c r="Y6" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="Y6" s="2" t="s">
+      <c r="Z6" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="Z6" s="2" t="s">
+      <c r="AA6" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG6" s="1"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AJ6" s="14" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AK6" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="AL6" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="AM6" s="15" t="s">
         <v>614</v>
       </c>
-      <c r="AL6" s="15" t="s">
+      <c r="AN6" s="15" t="s">
         <v>614</v>
       </c>
-      <c r="AM6" s="15" t="s">
-        <v>616</v>
-      </c>
-      <c r="AN6" s="15" t="s">
-        <v>616</v>
-      </c>
       <c r="AO6" s="15" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AP6" s="16" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AQ6" s="15" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AR6" s="16"/>
       <c r="AS6" s="16" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="AT6" s="16"/>
       <c r="AU6" s="16" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="AV6" s="16" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="AW6" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY6" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="AX6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY6" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="AZ6" s="2"/>
       <c r="BA6" s="2"/>
@@ -6709,7 +6706,7 @@
         <v>45531.655922488426</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>34</v>
@@ -6721,34 +6718,34 @@
         <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="K7" s="4">
         <v>1027</v>
       </c>
       <c r="L7" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="N7" s="1">
         <v>2027</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>37</v>
@@ -6757,94 +6754,94 @@
         <v>37</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="T7" s="1"/>
       <c r="U7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W7" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W7" s="2" t="s">
+      <c r="X7" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="Y7" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="Z7" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="AA7" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH7" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AG7" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH7" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="AI7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AJ7" s="14" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AK7" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="AL7" s="16" t="s">
+        <v>616</v>
+      </c>
+      <c r="AM7" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="AN7" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="AO7" s="16" t="s">
+        <v>587</v>
+      </c>
+      <c r="AP7" s="16" t="s">
         <v>617</v>
-      </c>
-      <c r="AL7" s="16" t="s">
-        <v>618</v>
-      </c>
-      <c r="AM7" s="15" t="s">
-        <v>588</v>
-      </c>
-      <c r="AN7" s="15" t="s">
-        <v>588</v>
-      </c>
-      <c r="AO7" s="16" t="s">
-        <v>588</v>
-      </c>
-      <c r="AP7" s="16" t="s">
-        <v>619</v>
       </c>
       <c r="AQ7" s="15"/>
       <c r="AR7" s="16" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="AS7" s="16" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="AT7" s="16" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="AU7" s="16" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="AV7" s="16" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="AW7" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY7" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="AX7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AY7" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="AZ7" s="2"/>
       <c r="BA7" s="2"/>
@@ -6854,7 +6851,7 @@
         <v>45531.852714618057</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>34</v>
@@ -6866,34 +6863,34 @@
         <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="K8" s="4">
         <v>1031</v>
       </c>
       <c r="L8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="N8" s="1">
         <v>2028</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>37</v>
@@ -6902,92 +6899,92 @@
         <v>37</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W8" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W8" s="2" t="s">
+      <c r="X8" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="X8" s="2" t="s">
+      <c r="Y8" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="Y8" s="2" t="s">
+      <c r="Z8" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="Z8" s="2" t="s">
+      <c r="AA8" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AH8" s="2"/>
       <c r="AI8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AJ8" s="13" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AK8" s="15" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AL8" s="15" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AM8" s="15" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AN8" s="15" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AO8" s="15" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AP8" s="15" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AQ8" s="15" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AR8" s="16"/>
       <c r="AS8" s="16" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="AT8" s="16" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="AU8" s="16" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="AV8" s="16" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="AW8" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="AX8" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="AX8" s="2" t="s">
+      <c r="AY8" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="AY8" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="AZ8" s="2"/>
       <c r="BA8" s="2"/>
@@ -6997,7 +6994,7 @@
         <v>45531.875323831016</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>34</v>
@@ -7009,34 +7006,34 @@
         <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="K9" s="4">
         <v>1033</v>
       </c>
       <c r="L9" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="N9" s="1">
         <v>2028</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>37</v>
@@ -7045,94 +7042,94 @@
         <v>37</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W9" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W9" s="2" t="s">
+      <c r="X9" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="X9" s="2" t="s">
+      <c r="Y9" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="Y9" s="2" t="s">
+      <c r="Z9" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="Z9" s="2" t="s">
+      <c r="AA9" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AG9" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="AG9" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="AH9" s="9">
         <v>235006430</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ9" s="13" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AK9" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="AL9" s="16" t="s">
+        <v>620</v>
+      </c>
+      <c r="AM9" s="15" t="s">
         <v>621</v>
       </c>
-      <c r="AL9" s="16" t="s">
-        <v>622</v>
-      </c>
-      <c r="AM9" s="15" t="s">
-        <v>623</v>
-      </c>
       <c r="AN9" s="15" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AO9" s="16"/>
       <c r="AP9" s="16" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AQ9" s="15" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AR9" s="16" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="AS9" s="16" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="AT9" s="16" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="AU9" s="16" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="AV9" s="16" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="AW9" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="AX9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY9" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="AX9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY9" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="AZ9" s="2"/>
       <c r="BA9" s="2"/>
@@ -7142,7 +7139,7 @@
         <v>45531.876074583335</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>34</v>
@@ -7154,34 +7151,34 @@
         <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="K10" s="4">
         <v>1034</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N10" s="1">
         <v>2028</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>37</v>
@@ -7190,88 +7187,88 @@
         <v>37</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W10" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W10" s="2" t="s">
+      <c r="X10" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="X10" s="2" t="s">
+      <c r="Y10" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="Z10" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="Z10" s="2" t="s">
+      <c r="AA10" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG10" s="1"/>
       <c r="AH10" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ10" s="13" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AK10" s="15" t="s">
+        <v>623</v>
+      </c>
+      <c r="AL10" s="15" t="s">
+        <v>624</v>
+      </c>
+      <c r="AM10" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="AN10" s="15" t="s">
         <v>625</v>
       </c>
-      <c r="AL10" s="15" t="s">
-        <v>626</v>
-      </c>
-      <c r="AM10" s="15" t="s">
-        <v>605</v>
-      </c>
-      <c r="AN10" s="15" t="s">
-        <v>627</v>
-      </c>
       <c r="AO10" s="15" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AP10" s="15"/>
       <c r="AQ10" s="15"/>
       <c r="AR10" s="16" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="AS10" s="16" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="AT10" s="16"/>
       <c r="AU10" s="16" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="AV10" s="16">
         <v>19</v>
       </c>
       <c r="AW10" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="AX10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY10" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="AX10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY10" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="AZ10" s="2"/>
       <c r="BA10" s="2"/>
@@ -7281,7 +7278,7 @@
         <v>45531.876650740742</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>34</v>
@@ -7293,34 +7290,34 @@
         <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="K11" s="4">
         <v>1035</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N11" s="1">
         <v>2026</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>37</v>
@@ -7329,80 +7326,80 @@
         <v>37</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="T11" s="1"/>
       <c r="U11" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W11" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W11" s="2" t="s">
+      <c r="X11" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="X11" s="2" t="s">
+      <c r="Y11" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="Y11" s="2" t="s">
+      <c r="Z11" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="Z11" s="2" t="s">
+      <c r="AA11" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG11" s="1"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AJ11" s="14" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AK11" s="16"/>
       <c r="AL11" s="15"/>
       <c r="AM11" s="16" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AN11" s="15" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AO11" s="16"/>
       <c r="AP11" s="15"/>
       <c r="AQ11" s="16"/>
       <c r="AR11" s="16" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="AS11" s="16" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="AT11" s="16" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="AU11" s="16"/>
       <c r="AV11" s="16" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="AW11" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="AX11" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="AX11" s="2" t="s">
+      <c r="AY11" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="AY11" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="AZ11" s="2"/>
       <c r="BA11" s="2"/>
@@ -7412,7 +7409,7 @@
         <v>45531.903458356479</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>34</v>
@@ -7424,34 +7421,34 @@
         <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="K12" s="4">
         <v>1036</v>
       </c>
       <c r="L12" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>299</v>
       </c>
       <c r="N12" s="1">
         <v>2028</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>37</v>
@@ -7460,92 +7457,92 @@
         <v>37</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="T12" s="1"/>
       <c r="U12" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W12" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W12" s="2" t="s">
+      <c r="X12" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="X12" s="2" t="s">
+      <c r="Y12" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="Y12" s="2" t="s">
+      <c r="Z12" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="Z12" s="2" t="s">
+      <c r="AA12" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG12" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="AG12" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="AH12" s="2"/>
       <c r="AI12" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AJ12" s="14" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AK12" s="15" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AL12" s="15" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AM12" s="15" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AN12" s="15" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AO12" s="15" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AP12" s="16" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AQ12" s="15" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AR12" s="16" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="AS12" s="16"/>
       <c r="AT12" s="16" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="AU12" s="16" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="AV12" s="16" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="AW12" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="AX12" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="AX12" s="2" t="s">
+      <c r="AY12" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="AY12" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="AZ12" s="2"/>
       <c r="BA12" s="2"/>
@@ -7555,7 +7552,7 @@
         <v>45531.915028773146</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>34</v>
@@ -7567,34 +7564,34 @@
         <v>35</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>315</v>
       </c>
       <c r="K13" s="4">
         <v>1037</v>
       </c>
       <c r="L13" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>317</v>
       </c>
       <c r="N13" s="1">
         <v>2028</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>37</v>
@@ -7603,82 +7600,82 @@
         <v>37</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W13" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="X13" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="X13" s="2" t="s">
+      <c r="Y13" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="Y13" s="2" t="s">
+      <c r="Z13" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="Z13" s="2" t="s">
+      <c r="AA13" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG13" s="1"/>
       <c r="AH13" s="2"/>
       <c r="AI13" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AJ13" s="13" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AK13" s="15" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="AL13" s="15" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AM13" s="15" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="AN13" s="15"/>
       <c r="AO13" s="15"/>
       <c r="AP13" s="15"/>
       <c r="AQ13" s="15"/>
       <c r="AR13" s="16" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="AS13" s="16" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="AT13" s="16"/>
       <c r="AU13" s="16" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="AV13" s="16" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="AW13" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="AX13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY13" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="AX13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AY13" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="AZ13" s="2"/>
       <c r="BA13" s="2"/>
@@ -7688,7 +7685,7 @@
         <v>45532.131844212963</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>34</v>
@@ -7700,34 +7697,34 @@
         <v>35</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="K14" s="4">
         <v>1039</v>
       </c>
       <c r="L14" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="N14" s="1">
         <v>2026</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>37</v>
@@ -7736,84 +7733,84 @@
         <v>37</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="T14" s="1"/>
       <c r="U14" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W14" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W14" s="2" t="s">
+      <c r="X14" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="X14" s="2" t="s">
+      <c r="Y14" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="Y14" s="2" t="s">
+      <c r="Z14" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="Z14" s="2" t="s">
+      <c r="AA14" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AG14" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="AG14" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="AH14" s="2"/>
       <c r="AI14" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AJ14" s="13" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AK14" s="15"/>
       <c r="AL14" s="16"/>
       <c r="AM14" s="15"/>
       <c r="AN14" s="15"/>
       <c r="AO14" s="16" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AP14" s="16" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AQ14" s="15" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AR14" s="16" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="AS14" s="16"/>
       <c r="AT14" s="16" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="AU14" s="16" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="AV14" s="16" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="AW14" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="AX14" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AY14" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="AX14" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="AY14" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="AZ14" s="2"/>
       <c r="BA14" s="2"/>
@@ -7823,7 +7820,7 @@
         <v>45538.747660810186</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>34</v>
@@ -7835,34 +7832,34 @@
         <v>35</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="K15" s="4">
         <v>1040</v>
       </c>
       <c r="L15" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>348</v>
       </c>
       <c r="N15" s="1">
         <v>2028</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>37</v>
@@ -7871,92 +7868,92 @@
         <v>37</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S15" s="2" t="s">
         <v>39</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W15" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W15" s="2" t="s">
+      <c r="X15" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="X15" s="2" t="s">
+      <c r="Y15" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="Y15" s="2" t="s">
+      <c r="Z15" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="Z15" s="2" t="s">
+      <c r="AA15" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG15" s="1"/>
       <c r="AH15" s="2"/>
       <c r="AI15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ15" s="14" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AK15" s="15" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="AL15" s="15" t="s">
-        <v>637</v>
+        <v>753</v>
       </c>
       <c r="AM15" s="15" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AN15" s="15" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AO15" s="15" t="s">
-        <v>638</v>
+        <v>754</v>
       </c>
       <c r="AP15" s="15" t="s">
-        <v>639</v>
+        <v>755</v>
       </c>
       <c r="AQ15" s="15" t="s">
-        <v>639</v>
+        <v>755</v>
       </c>
       <c r="AR15" s="16" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="AS15" s="16" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="AT15" s="16" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="AU15" s="16" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="AV15" s="16" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="AW15" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="AX15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY15" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="AX15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY15" s="2" t="s">
-        <v>357</v>
       </c>
       <c r="AZ15" s="2"/>
       <c r="BA15" s="2" t="s">
@@ -7968,7 +7965,7 @@
         <v>45532.837414942129</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>34</v>
@@ -7980,34 +7977,34 @@
         <v>35</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>361</v>
       </c>
       <c r="K16" s="4">
         <v>1042</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N16" s="1">
         <v>2028</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>37</v>
@@ -8016,94 +8013,94 @@
         <v>37</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W16" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W16" s="2" t="s">
+      <c r="X16" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="X16" s="2" t="s">
+      <c r="Y16" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="Y16" s="2" t="s">
+      <c r="Z16" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="Z16" s="2" t="s">
+      <c r="AA16" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="AA16" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AG16" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="AG16" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="AH16" s="2"/>
       <c r="AI16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ16" s="14" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AK16" s="15" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="AL16" s="15" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="AM16" s="15" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="AN16" s="15" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="AO16" s="15" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="AP16" s="15" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="AQ16" s="15" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="AR16" s="16" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="AS16" s="16" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="AT16" s="16" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="AU16" s="16" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="AV16" s="16" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="AW16" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="AX16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY16" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="AX16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY16" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="AZ16" s="2"/>
       <c r="BA16" s="2" t="s">
@@ -8115,7 +8112,7 @@
         <v>45538.571469479168</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>34</v>
@@ -8124,37 +8121,37 @@
         <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="K17" s="4">
         <v>1044</v>
       </c>
       <c r="L17" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="N17" s="1">
         <v>2028</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>37</v>
@@ -8163,90 +8160,90 @@
         <v>37</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="T17" s="1"/>
       <c r="U17" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W17" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W17" s="2" t="s">
+      <c r="X17" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="X17" s="2" t="s">
+      <c r="Y17" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="Y17" s="2" t="s">
+      <c r="Z17" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="Z17" s="2" t="s">
+      <c r="AA17" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="AG17" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="AG17" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="AH17" s="2"/>
       <c r="AI17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ17" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AK17" s="16" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="AL17" s="15" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="AM17" s="16" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="AN17" s="15"/>
       <c r="AO17" s="16"/>
       <c r="AP17" s="15" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="AQ17" s="16" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AR17" s="16" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="AS17" s="16" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="AT17" s="16" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="AU17" s="16" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="AV17" s="16" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="AW17" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="AX17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY17" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="AX17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY17" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="AZ17" s="2"/>
       <c r="BA17" s="2" t="s">
@@ -8258,46 +8255,46 @@
         <v>45533.496223854163</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="K18" s="4">
         <v>1049</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N18" s="1">
         <v>2025</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>37</v>
@@ -8306,90 +8303,90 @@
         <v>37</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="T18" s="1"/>
       <c r="U18" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W18" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W18" s="2" t="s">
+      <c r="X18" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="X18" s="2" t="s">
+      <c r="Y18" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="Y18" s="2" t="s">
+      <c r="Z18" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="Z18" s="2" t="s">
+      <c r="AA18" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>402</v>
       </c>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AG18" s="1"/>
       <c r="AH18" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AI18" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AJ18" s="13" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AK18" s="15" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AL18" s="15" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AM18" s="15"/>
       <c r="AN18" s="15" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AO18" s="15" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="AP18" s="15" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="AQ18" s="15" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="AR18" s="16" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="AS18" s="16"/>
       <c r="AT18" s="16" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="AU18" s="16" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="AV18" s="16" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="AW18" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="AX18" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="AX18" s="2" t="s">
-        <v>406</v>
-      </c>
       <c r="AY18" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AZ18" s="2"/>
       <c r="BA18" s="2" t="s">
@@ -8401,7 +8398,7 @@
         <v>45533.614213368055</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>34</v>
@@ -8413,34 +8410,34 @@
         <v>35</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>411</v>
       </c>
       <c r="K19" s="4">
         <v>1050</v>
       </c>
       <c r="L19" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="M19" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="N19" s="1">
         <v>2027</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>37</v>
@@ -8449,88 +8446,88 @@
         <v>37</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S19" s="2" t="s">
         <v>39</v>
       </c>
       <c r="T19" s="1"/>
       <c r="U19" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W19" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W19" s="2" t="s">
+      <c r="X19" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="X19" s="2" t="s">
+      <c r="Y19" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="Y19" s="2" t="s">
+      <c r="Z19" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="Z19" s="2" t="s">
+      <c r="AA19" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="AA19" s="2" t="s">
-        <v>419</v>
       </c>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH19" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="AG19" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH19" s="2" t="s">
-        <v>421</v>
-      </c>
       <c r="AI19" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AJ19" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AK19" s="16"/>
       <c r="AL19" s="15"/>
       <c r="AM19" s="16" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="AN19" s="15" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="AO19" s="16" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="AP19" s="15" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="AQ19" s="16"/>
       <c r="AR19" s="16" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="AS19" s="16"/>
       <c r="AT19" s="16" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="AU19" s="16" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="AV19" s="16" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="AW19" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="AX19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY19" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="AX19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY19" s="2" t="s">
-        <v>423</v>
       </c>
       <c r="AZ19" s="2"/>
       <c r="BA19" s="2" t="s">
@@ -8542,7 +8539,7 @@
         <v>45533.694361712958</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>34</v>
@@ -8554,34 +8551,34 @@
         <v>35</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>427</v>
       </c>
       <c r="K20" s="4">
         <v>1051</v>
       </c>
       <c r="L20" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="N20" s="1">
         <v>2027</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>37</v>
@@ -8590,86 +8587,86 @@
         <v>37</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S20" s="2" t="s">
         <v>39</v>
       </c>
       <c r="T20" s="1"/>
       <c r="U20" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W20" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W20" s="2" t="s">
+      <c r="X20" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="X20" s="2" t="s">
+      <c r="Y20" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="Y20" s="2" t="s">
+      <c r="Z20" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="Z20" s="2" t="s">
+      <c r="AA20" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="AA20" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG20" s="1"/>
       <c r="AH20" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AI20" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AJ20" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AK20" s="15" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="AL20" s="16" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="AM20" s="15" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AN20" s="15" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AO20" s="16"/>
       <c r="AP20" s="16" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="AQ20" s="15" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="AR20" s="16"/>
       <c r="AS20" s="16" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="AT20" s="16"/>
       <c r="AU20" s="16"/>
       <c r="AV20" s="16" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="AW20" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AX20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY20" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="AX20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY20" s="2" t="s">
-        <v>438</v>
       </c>
       <c r="AZ20" s="2"/>
       <c r="BA20" s="2" t="s">
@@ -8681,7 +8678,7 @@
         <v>45533.715989803241</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>34</v>
@@ -8693,34 +8690,34 @@
         <v>35</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>441</v>
-      </c>
       <c r="H21" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>36</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K21" s="4">
         <v>1052</v>
       </c>
       <c r="L21" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="N21" s="1">
         <v>2026</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>37</v>
@@ -8729,82 +8726,82 @@
         <v>37</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>39</v>
       </c>
       <c r="T21" s="1"/>
       <c r="U21" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W21" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W21" s="2" t="s">
+      <c r="X21" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="X21" s="2" t="s">
+      <c r="Y21" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="Y21" s="2" t="s">
+      <c r="Z21" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="Z21" s="2" t="s">
+      <c r="AA21" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="AA21" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AG21" s="1"/>
       <c r="AH21" s="2"/>
       <c r="AI21" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AJ21" s="13" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AK21" s="15"/>
       <c r="AL21" s="15" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AM21" s="15"/>
       <c r="AN21" s="15" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AO21" s="15"/>
       <c r="AP21" s="15"/>
       <c r="AQ21" s="15" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AR21" s="16" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="AS21" s="16" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="AT21" s="16" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="AU21" s="16"/>
       <c r="AV21" s="16" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="AW21" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AX21" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="AX21" s="2" t="s">
+      <c r="AY21" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="AY21" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="AZ21" s="2"/>
       <c r="BA21" s="2" t="s">
@@ -8816,7 +8813,7 @@
         <v>45533.920907638894</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>34</v>
@@ -8828,34 +8825,34 @@
         <v>35</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="K22" s="4">
         <v>1057</v>
       </c>
       <c r="L22" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="N22" s="1">
         <v>2026</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>37</v>
@@ -8864,88 +8861,88 @@
         <v>37</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="S22" s="2" t="s">
         <v>39</v>
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W22" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W22" s="2" t="s">
+      <c r="X22" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="X22" s="2" t="s">
+      <c r="Y22" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="Y22" s="2" t="s">
+      <c r="Z22" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="Z22" s="2" t="s">
+      <c r="AA22" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="AA22" s="2" t="s">
-        <v>468</v>
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AG22" s="1"/>
       <c r="AH22" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AI22" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AJ22" s="14" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AK22" s="15" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="AL22" s="15" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="AM22" s="15" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="AN22" s="15"/>
       <c r="AO22" s="16" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AP22" s="16" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="AQ22" s="15" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="AR22" s="7"/>
       <c r="AS22" s="7" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="AT22" s="7"/>
       <c r="AU22" s="7" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="AV22" s="7" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="AW22" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AX22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY22" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="AX22" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AY22" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="AZ22" s="2"/>
       <c r="BA22" s="2" t="s">
